--- a/data/trans_orig/P11_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>165810</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>142500</v>
+        <v>144847</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>186025</v>
+        <v>189388</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2838533215135983</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2439471597454032</v>
+        <v>0.2479662321069709</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3184588818326086</v>
+        <v>0.3242160411829089</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>328</v>
@@ -765,19 +765,19 @@
         <v>340515</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>311699</v>
+        <v>310230</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>370996</v>
+        <v>369337</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3691888899566041</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3379458029666209</v>
+        <v>0.3363533828504732</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4022369342953118</v>
+        <v>0.400437982412743</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>496</v>
@@ -786,19 +786,19 @@
         <v>506325</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>464927</v>
+        <v>470128</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>543965</v>
+        <v>541133</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3360996888501308</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3086195819074034</v>
+        <v>0.3120717320910203</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3610847968844393</v>
+        <v>0.3592051311097193</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>418331</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>398116</v>
+        <v>394753</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>441641</v>
+        <v>439294</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7161466784864017</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6815411181673915</v>
+        <v>0.6757839588170911</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7560528402545968</v>
+        <v>0.7520337678930291</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>557</v>
@@ -836,19 +836,19 @@
         <v>581818</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>551337</v>
+        <v>552996</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>610634</v>
+        <v>612103</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6308111100433959</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5977630657046883</v>
+        <v>0.599562017587257</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6620541970333792</v>
+        <v>0.6636466171495268</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>963</v>
@@ -857,19 +857,19 @@
         <v>1000149</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>962509</v>
+        <v>965341</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1041547</v>
+        <v>1036346</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6639003111498692</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6389152031155607</v>
+        <v>0.6407948688902808</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6913804180925966</v>
+        <v>0.6879282679089797</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>197563</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>174594</v>
+        <v>174838</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>224753</v>
+        <v>225060</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.183285671260395</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1619766401554895</v>
+        <v>0.162203171438903</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2085115242369334</v>
+        <v>0.2087956971685569</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>286</v>
@@ -982,19 +982,19 @@
         <v>292451</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>263297</v>
+        <v>265016</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>321477</v>
+        <v>323015</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.276539553838821</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.248971477630778</v>
+        <v>0.2505967850403286</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3039863427746428</v>
+        <v>0.3054406965379351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>485</v>
@@ -1003,19 +1003,19 @@
         <v>490014</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>451129</v>
+        <v>453847</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>527448</v>
+        <v>530278</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2294681407176066</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2112590454252175</v>
+        <v>0.2125318947487515</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2469983574625424</v>
+        <v>0.2483235978899645</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>880331</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>853141</v>
+        <v>852834</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>903300</v>
+        <v>903056</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.816714328739605</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7914884757630667</v>
+        <v>0.7912043028314431</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8380233598445106</v>
+        <v>0.8377968285610971</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>742</v>
@@ -1053,19 +1053,19 @@
         <v>765087</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>736061</v>
+        <v>734523</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>794241</v>
+        <v>792522</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.723460446161179</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.696013657225357</v>
+        <v>0.6945593034620648</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7510285223692217</v>
+        <v>0.7494032149596714</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1598</v>
@@ -1074,19 +1074,19 @@
         <v>1645418</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1607984</v>
+        <v>1605154</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1684303</v>
+        <v>1681585</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7705318592823934</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7530016425374576</v>
+        <v>0.7516764021100357</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7887409545747825</v>
+        <v>0.7874681052512486</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>158275</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>135670</v>
+        <v>136265</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>182525</v>
+        <v>179969</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1411165356360944</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1209620514444902</v>
+        <v>0.1214919500695653</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1627370130249293</v>
+        <v>0.1604580408333059</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>259</v>
@@ -1199,19 +1199,19 @@
         <v>265714</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>238743</v>
+        <v>238513</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>294581</v>
+        <v>293877</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2673345326992449</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2401984476159874</v>
+        <v>0.2399668787537859</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.296376944054174</v>
+        <v>0.2956688296053806</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>420</v>
@@ -1220,19 +1220,19 @@
         <v>423990</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>387898</v>
+        <v>389646</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>463535</v>
+        <v>461324</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2004174370648539</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1833568073961581</v>
+        <v>0.1841832914169132</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2191103725638668</v>
+        <v>0.2180649655934165</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>963319</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>939069</v>
+        <v>941625</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>985924</v>
+        <v>985329</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8588834643639056</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8372629869750707</v>
+        <v>0.8395419591666939</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8790379485555098</v>
+        <v>0.8785080499304344</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>723</v>
@@ -1270,19 +1270,19 @@
         <v>728226</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>699359</v>
+        <v>700063</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>755197</v>
+        <v>755427</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7326654673007551</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7036230559458262</v>
+        <v>0.7043311703946196</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7598015523840126</v>
+        <v>0.7600331212462141</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1665</v>
@@ -1291,19 +1291,19 @@
         <v>1691544</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1651999</v>
+        <v>1654210</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1727636</v>
+        <v>1725888</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7995825629351461</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7808896274361332</v>
+        <v>0.7819350344065835</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8166431926038419</v>
+        <v>0.8158167085830867</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>60265</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47386</v>
+        <v>45243</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>76672</v>
+        <v>77729</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.134759801757343</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1059606855382217</v>
+        <v>0.101169274865435</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1714486476194509</v>
+        <v>0.1738124181789529</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -1416,19 +1416,19 @@
         <v>61949</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46395</v>
+        <v>47822</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75667</v>
+        <v>77700</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1815842369501328</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1359933070066357</v>
+        <v>0.1401758532751038</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2217941695207217</v>
+        <v>0.2277538955901847</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>119</v>
@@ -1437,19 +1437,19 @@
         <v>122214</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>101300</v>
+        <v>102030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142234</v>
+        <v>142412</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1550228570116322</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1284946049613694</v>
+        <v>0.1294207204984427</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1804180850844996</v>
+        <v>0.1806437788261966</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>386935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>370528</v>
+        <v>369471</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>399814</v>
+        <v>401957</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.865240198242657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8285513523805491</v>
+        <v>0.8261875818210468</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8940393144617782</v>
+        <v>0.8988307251345644</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>278</v>
@@ -1487,19 +1487,19 @@
         <v>279209</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>265491</v>
+        <v>263458</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>294763</v>
+        <v>293336</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8184157630498672</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7782058304792783</v>
+        <v>0.7722461044098158</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8640066929933643</v>
+        <v>0.8598241467248963</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>656</v>
@@ -1508,19 +1508,19 @@
         <v>666144</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>646124</v>
+        <v>645946</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>687058</v>
+        <v>686328</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8449771429883678</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8195819149155006</v>
+        <v>0.8193562211738035</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8715053950386311</v>
+        <v>0.8705792795015574</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>581913</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>543051</v>
+        <v>541286</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>626781</v>
+        <v>625960</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1801125888867186</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1680841935864946</v>
+        <v>0.1675378459551246</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1940000617001096</v>
+        <v>0.1937460543671942</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>934</v>
@@ -1633,19 +1633,19 @@
         <v>960630</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>908235</v>
+        <v>907780</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1012761</v>
+        <v>1012385</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2897853919814818</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.273980066028537</v>
+        <v>0.2738425346892659</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.30551144302398</v>
+        <v>0.3053979323514781</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1520</v>
@@ -1654,19 +1654,19 @@
         <v>1542543</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1468316</v>
+        <v>1474333</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1613619</v>
+        <v>1616362</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2356538561696014</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2243142636405658</v>
+        <v>0.2252334978382628</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2465122258900642</v>
+        <v>0.2469312133154684</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2648916</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2604048</v>
+        <v>2604869</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2687778</v>
+        <v>2689543</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8198874111132815</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8059999382998904</v>
+        <v>0.8062539456328054</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8319158064135054</v>
+        <v>0.8324621540448751</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2300</v>
@@ -1704,19 +1704,19 @@
         <v>2354339</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2302208</v>
+        <v>2302584</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2406734</v>
+        <v>2407189</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7102146080185182</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6944885569760201</v>
+        <v>0.6946020676485219</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.726019933971463</v>
+        <v>0.726157465310734</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4882</v>
@@ -1725,19 +1725,19 @@
         <v>5003255</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4932179</v>
+        <v>4929436</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5077482</v>
+        <v>5071465</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7643461438303987</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7534877741099357</v>
+        <v>0.7530687866845316</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7756857363594341</v>
+        <v>0.774766502161737</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>211923</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>183981</v>
+        <v>186783</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>238798</v>
+        <v>241367</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2034344549916015</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1766118584630183</v>
+        <v>0.179302237470835</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2292331683046707</v>
+        <v>0.2316999505977785</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>357</v>
@@ -2090,19 +2090,19 @@
         <v>382661</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>349680</v>
+        <v>351978</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>411383</v>
+        <v>417615</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3425794221548377</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3130537237755891</v>
+        <v>0.3151111116684611</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3682930843534269</v>
+        <v>0.3738729077993383</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>551</v>
@@ -2111,19 +2111,19 @@
         <v>594583</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>553703</v>
+        <v>550456</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>639831</v>
+        <v>639538</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2754329190830496</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2564955216852053</v>
+        <v>0.254991651326455</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2963933844344687</v>
+        <v>0.2962577893328251</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>829801</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>802926</v>
+        <v>800357</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>857743</v>
+        <v>854941</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7965655450083985</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7707668316953293</v>
+        <v>0.7683000494022216</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8233881415369817</v>
+        <v>0.820697762529165</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>671</v>
@@ -2161,19 +2161,19 @@
         <v>734337</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>705615</v>
+        <v>699383</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>767318</v>
+        <v>765020</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6574205778451623</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6317069156465732</v>
+        <v>0.6261270922006618</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6869462762244111</v>
+        <v>0.6848888883315388</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1454</v>
@@ -2182,19 +2182,19 @@
         <v>1564139</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1518891</v>
+        <v>1519184</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1605019</v>
+        <v>1608266</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7245670809169504</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7036066155655312</v>
+        <v>0.7037422106671749</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7435044783147946</v>
+        <v>0.7450083486735449</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>183180</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>156884</v>
+        <v>159602</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>209067</v>
+        <v>211288</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1880107934018802</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1610215470620968</v>
+        <v>0.163811086262617</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.214580637919816</v>
+        <v>0.216860131246818</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>339</v>
@@ -2307,19 +2307,19 @@
         <v>364871</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>334188</v>
+        <v>332974</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>400465</v>
+        <v>397194</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3334398354388114</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3054004086412981</v>
+        <v>0.3042904848180455</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.365968476877534</v>
+        <v>0.3629790832719362</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>506</v>
@@ -2328,19 +2328,19 @@
         <v>548050</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>510205</v>
+        <v>508103</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>590465</v>
+        <v>597436</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2649420836479923</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2466465311601635</v>
+        <v>0.2456306268268329</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2854464838214242</v>
+        <v>0.2888165405664646</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>791125</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>765238</v>
+        <v>763017</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>817421</v>
+        <v>814703</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8119892065981198</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7854193620801839</v>
+        <v>0.7831398687531821</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8389784529379032</v>
+        <v>0.8361889137373829</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>681</v>
@@ -2378,19 +2378,19 @@
         <v>729391</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>693797</v>
+        <v>697068</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>760074</v>
+        <v>761288</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6665601645611885</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.634031523122466</v>
+        <v>0.6370209167280638</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6945995913587019</v>
+        <v>0.6957095151819546</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1435</v>
@@ -2399,19 +2399,19 @@
         <v>1520517</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1478102</v>
+        <v>1471131</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1558362</v>
+        <v>1560464</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7350579163520077</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7145535161785753</v>
+        <v>0.7111834594335351</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7533534688398363</v>
+        <v>0.754369373173167</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>165951</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140907</v>
+        <v>142039</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191119</v>
+        <v>193287</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1881965355013039</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1597954933417459</v>
+        <v>0.1610793670667136</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2167384420095477</v>
+        <v>0.2191965901805411</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>231</v>
@@ -2524,19 +2524,19 @@
         <v>249915</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>224410</v>
+        <v>221815</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>277218</v>
+        <v>278341</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2853571497173588</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2562355759070445</v>
+        <v>0.2532725333724944</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3165330004302672</v>
+        <v>0.3178143391218176</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>383</v>
@@ -2545,19 +2545,19 @@
         <v>415866</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>378621</v>
+        <v>379060</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>451439</v>
+        <v>453468</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2366109667251368</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2154200319831211</v>
+        <v>0.2156702096910626</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2568504417432864</v>
+        <v>0.2580049793635472</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>715846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>690678</v>
+        <v>688510</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>740890</v>
+        <v>739758</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8118034644986961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7832615579904522</v>
+        <v>0.7808034098194589</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8402045066582537</v>
+        <v>0.8389206329332863</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>590</v>
@@ -2595,19 +2595,19 @@
         <v>625881</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>598578</v>
+        <v>597455</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>651386</v>
+        <v>653981</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7146428502826412</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6834669995697328</v>
+        <v>0.6821856608781826</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7437644240929555</v>
+        <v>0.7467274666275059</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1265</v>
@@ -2616,19 +2616,19 @@
         <v>1341727</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1306154</v>
+        <v>1304125</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1378972</v>
+        <v>1378533</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7633890332748633</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7431495582567137</v>
+        <v>0.7419950206364528</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.784579968016879</v>
+        <v>0.7843297903089376</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>75964</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60615</v>
+        <v>59502</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95829</v>
+        <v>94903</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1537024333922581</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1226447711070089</v>
+        <v>0.1203934347471846</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1938967390874475</v>
+        <v>0.1920219775991668</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -2741,19 +2741,19 @@
         <v>104754</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>87285</v>
+        <v>88938</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>125883</v>
+        <v>125526</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2318584795998303</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1931944615795968</v>
+        <v>0.1968532677908717</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2786250222837581</v>
+        <v>0.2778352068080514</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>162</v>
@@ -2762,19 +2762,19 @@
         <v>180718</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>155835</v>
+        <v>156582</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>207138</v>
+        <v>208402</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.191027854759337</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1647254845825082</v>
+        <v>0.1655153798967305</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.218955538562298</v>
+        <v>0.2202917671706366</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>418265</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>398400</v>
+        <v>399326</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>433614</v>
+        <v>434727</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8462975666077419</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8061032609125526</v>
+        <v>0.8079780224008332</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8773552288929911</v>
+        <v>0.8796065652528153</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>317</v>
@@ -2812,19 +2812,19 @@
         <v>347046</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>325917</v>
+        <v>326274</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>364515</v>
+        <v>362862</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7681415204001697</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7213749777162418</v>
+        <v>0.7221647931919485</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8068055384204033</v>
+        <v>0.8031467322091282</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>701</v>
@@ -2833,19 +2833,19 @@
         <v>765311</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>738891</v>
+        <v>737627</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>790194</v>
+        <v>789447</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.808972145240663</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7810444614377017</v>
+        <v>0.7797082328293633</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8352745154174918</v>
+        <v>0.8344846201032694</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>637018</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>592136</v>
+        <v>591988</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>684294</v>
+        <v>684436</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1877970019987741</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1745655640895176</v>
+        <v>0.1745220390335362</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2017344061378857</v>
+        <v>0.2017762252646051</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1021</v>
@@ -2958,19 +2958,19 @@
         <v>1102199</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1043215</v>
+        <v>1043038</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1157751</v>
+        <v>1156609</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3114564042973501</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2947888244079895</v>
+        <v>0.2947388863203775</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3271540969947749</v>
+        <v>0.3268314275424211</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1602</v>
@@ -2979,19 +2979,19 @@
         <v>1739217</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1667641</v>
+        <v>1670643</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1815667</v>
+        <v>1813675</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2509363081103573</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2406092494942429</v>
+        <v>0.2410423921363138</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2619666599493993</v>
+        <v>0.2616792325550213</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2755036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2707760</v>
+        <v>2707618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2799918</v>
+        <v>2800066</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.812202998001226</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.798265593862114</v>
+        <v>0.7982237747353959</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.825434435910482</v>
+        <v>0.825477960966464</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2259</v>
@@ -3029,19 +3029,19 @@
         <v>2436657</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2381105</v>
+        <v>2382247</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2495641</v>
+        <v>2495818</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6885435957026499</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6728459030052252</v>
+        <v>0.6731685724575789</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7052111755920104</v>
+        <v>0.7052611136796225</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4855</v>
@@ -3050,19 +3050,19 @@
         <v>5191693</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5115243</v>
+        <v>5117235</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5263269</v>
+        <v>5260267</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7490636918896427</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7380333400506006</v>
+        <v>0.7383207674449785</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7593907505057571</v>
+        <v>0.758957607863686</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>265826</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>236959</v>
+        <v>238106</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>293614</v>
+        <v>295983</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.237093891228274</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.211347099573136</v>
+        <v>0.212369723976708</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2618783792493499</v>
+        <v>0.2639909365183115</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>390</v>
@@ -3415,19 +3415,19 @@
         <v>436435</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>400714</v>
+        <v>405248</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>470676</v>
+        <v>470316</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3502287489659279</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3215637407692505</v>
+        <v>0.3252019140910363</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3777064120875222</v>
+        <v>0.377417258869047</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>645</v>
@@ -3436,19 +3436,19 @@
         <v>702261</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>655988</v>
+        <v>655057</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>748374</v>
+        <v>747486</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2966471725009074</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2771004758599338</v>
+        <v>0.2767071633056981</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3161260453296596</v>
+        <v>0.3157506106212045</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>855360</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>827572</v>
+        <v>825203</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>884227</v>
+        <v>883080</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7629061087717259</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.73812162075065</v>
+        <v>0.7360090634816885</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.788652900426864</v>
+        <v>0.7876302760232919</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>785</v>
@@ -3486,19 +3486,19 @@
         <v>809708</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>775467</v>
+        <v>775827</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>845429</v>
+        <v>840895</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6497712510340721</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6222935879124777</v>
+        <v>0.6225827411309529</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6784362592307494</v>
+        <v>0.6747980859089635</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1590</v>
@@ -3507,19 +3507,19 @@
         <v>1665068</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1618955</v>
+        <v>1619843</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1711341</v>
+        <v>1712272</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7033528274990927</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6838739546703403</v>
+        <v>0.6842493893787954</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7228995241400662</v>
+        <v>0.723292836694302</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>153077</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>131460</v>
+        <v>132080</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>175981</v>
+        <v>179002</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1696772339216276</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1457161116424827</v>
+        <v>0.1464031535249401</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1950661387884491</v>
+        <v>0.1984143690945051</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>248</v>
@@ -3632,19 +3632,19 @@
         <v>276140</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>248591</v>
+        <v>245612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>305931</v>
+        <v>305091</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2758019997787039</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.248286925085726</v>
+        <v>0.2453113558703504</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3055567934199522</v>
+        <v>0.3047173255963811</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>399</v>
@@ -3653,19 +3653,19 @@
         <v>429217</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>392496</v>
+        <v>393337</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>462925</v>
+        <v>465634</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2255012734749662</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2062090273952779</v>
+        <v>0.2066510403456736</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2432111482947208</v>
+        <v>0.2446340106842012</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>749086</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>726182</v>
+        <v>723161</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>770703</v>
+        <v>770083</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8303227660783724</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.804933861211551</v>
+        <v>0.801585630905495</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8542838883575172</v>
+        <v>0.8535968464750598</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>698</v>
@@ -3703,19 +3703,19 @@
         <v>725086</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>695295</v>
+        <v>696135</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>752635</v>
+        <v>755614</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7241980002212961</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6944432065800478</v>
+        <v>0.6952826744036182</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7517130749142741</v>
+        <v>0.7546886441296495</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1421</v>
@@ -3724,19 +3724,19 @@
         <v>1474172</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1440464</v>
+        <v>1437755</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1510893</v>
+        <v>1510052</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7744987265250338</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7567888517052797</v>
+        <v>0.7553659893157988</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7937909726047222</v>
+        <v>0.7933489596543267</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>122376</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>104512</v>
+        <v>103527</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144240</v>
+        <v>142954</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1498157722705084</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1279464330287082</v>
+        <v>0.1267402036615949</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1765821213866742</v>
+        <v>0.17500776997922</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -3849,19 +3849,19 @@
         <v>190966</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>168410</v>
+        <v>166309</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>217241</v>
+        <v>216631</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.248620987205644</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2192544175306701</v>
+        <v>0.216519577048508</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2828291571917909</v>
+        <v>0.2820340122535046</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>291</v>
@@ -3870,19 +3870,19 @@
         <v>313342</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>282970</v>
+        <v>281299</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>349838</v>
+        <v>346684</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1976991159922037</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1785361199312716</v>
+        <v>0.1774819781348184</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2207254941659255</v>
+        <v>0.2187355774317342</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>694467</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>672603</v>
+        <v>673889</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>712331</v>
+        <v>713316</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8501842277294916</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8234178786133258</v>
+        <v>0.8249922300207799</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8720535669712917</v>
+        <v>0.8732597963384051</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>557</v>
@@ -3920,19 +3920,19 @@
         <v>577135</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>550860</v>
+        <v>551470</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>599691</v>
+        <v>601792</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.751379012794356</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7171708428082091</v>
+        <v>0.7179659877464954</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7807455824693295</v>
+        <v>0.7834804229514921</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1215</v>
@@ -3941,19 +3941,19 @@
         <v>1271602</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1235106</v>
+        <v>1238260</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1301974</v>
+        <v>1303645</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8023008840077963</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7792745058340746</v>
+        <v>0.7812644225682657</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8214638800687286</v>
+        <v>0.8225180218651812</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>77170</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60683</v>
+        <v>60194</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94892</v>
+        <v>96121</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1536108854736313</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1207944244129979</v>
+        <v>0.1198193985224359</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1888888757300988</v>
+        <v>0.1913342851780255</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>92</v>
@@ -4066,19 +4066,19 @@
         <v>104947</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86586</v>
+        <v>88545</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123499</v>
+        <v>125465</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2143097701347876</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1768159015346895</v>
+        <v>0.1808157484819843</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2521934139436332</v>
+        <v>0.2562098550014114</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>162</v>
@@ -4087,19 +4087,19 @@
         <v>182117</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>155894</v>
+        <v>156704</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>205856</v>
+        <v>209030</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1835726519417035</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1571403859193073</v>
+        <v>0.1579572532224333</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2075018033057603</v>
+        <v>0.2107013784523775</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>425200</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>407478</v>
+        <v>406249</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>441687</v>
+        <v>442176</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8463891145263687</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8111111242699008</v>
+        <v>0.8086657148219745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.879205575587002</v>
+        <v>0.8801806014775642</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>363</v>
@@ -4137,19 +4137,19 @@
         <v>384751</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>366199</v>
+        <v>364233</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>403112</v>
+        <v>401153</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7856902298652124</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7478065860563665</v>
+        <v>0.7437901449985886</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8231840984653103</v>
+        <v>0.8191842515180155</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>760</v>
@@ -4158,19 +4158,19 @@
         <v>809951</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>786212</v>
+        <v>783038</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>836174</v>
+        <v>835364</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8164273480582964</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7924981966942395</v>
+        <v>0.7892986215476224</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8428596140806925</v>
+        <v>0.8420427467775664</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>618448</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>572657</v>
+        <v>577839</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>663075</v>
+        <v>668507</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1850222503916009</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1713226349477731</v>
+        <v>0.1728729394296479</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1983732839308096</v>
+        <v>0.1999982581790093</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>898</v>
@@ -4283,19 +4283,19 @@
         <v>1008488</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>949850</v>
+        <v>952345</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1063921</v>
+        <v>1067562</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2877146947833191</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2709855665949811</v>
+        <v>0.2716972749765738</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3035291933799092</v>
+        <v>0.3045680454517075</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1497</v>
@@ -4304,19 +4304,19 @@
         <v>1626936</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1552113</v>
+        <v>1558432</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1700551</v>
+        <v>1702682</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2375877386247188</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.226660946072154</v>
+        <v>0.2275837734836195</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2483379819713163</v>
+        <v>0.2486491293498193</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2724114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2679487</v>
+        <v>2674055</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2769905</v>
+        <v>2764723</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8149777496083991</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8016267160691904</v>
+        <v>0.8000017418209906</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8286773650522268</v>
+        <v>0.8271270605703521</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2403</v>
@@ -4354,19 +4354,19 @@
         <v>2496680</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2441247</v>
+        <v>2437606</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2555318</v>
+        <v>2552823</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.712285305216681</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6964708066200908</v>
+        <v>0.6954319545482924</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7290144334050186</v>
+        <v>0.7283027250234262</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4986</v>
@@ -4375,19 +4375,19 @@
         <v>5220793</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5147178</v>
+        <v>5145047</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5295616</v>
+        <v>5289297</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7624122613752813</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7516620180286837</v>
+        <v>0.7513508706501807</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.773339053927846</v>
+        <v>0.7724162265163804</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>197451</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>174305</v>
+        <v>174781</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>220448</v>
+        <v>222908</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3967277664403352</v>
+        <v>0.3967277664403353</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3502217894043744</v>
+        <v>0.3511770080669103</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4429340259058316</v>
+        <v>0.447876428458527</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>479</v>
@@ -4740,19 +4740,19 @@
         <v>304715</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>280598</v>
+        <v>281728</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>325558</v>
+        <v>327847</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4886535123334758</v>
+        <v>0.4886535123334759</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4499783875890515</v>
+        <v>0.4517906913926327</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5220783675669489</v>
+        <v>0.5257499818431239</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>688</v>
@@ -4761,19 +4761,19 @@
         <v>502166</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>471636</v>
+        <v>469527</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>536020</v>
+        <v>533369</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4478506531210944</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4206232136895912</v>
+        <v>0.41874228085048</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4780426816725484</v>
+        <v>0.4756784882834219</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>300249</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>277252</v>
+        <v>274792</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>323395</v>
+        <v>322919</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6032722335596646</v>
+        <v>0.6032722335596649</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5570659740941685</v>
+        <v>0.5521235715414724</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6497782105956256</v>
+        <v>0.6488229919330897</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>382</v>
@@ -4811,19 +4811,19 @@
         <v>318865</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298022</v>
+        <v>295733</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>342982</v>
+        <v>341852</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.511346487666524</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4779216324330512</v>
+        <v>0.474250018156876</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5500216124109484</v>
+        <v>0.5482093086073674</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>627</v>
@@ -4832,19 +4832,19 @@
         <v>619114</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>585260</v>
+        <v>587911</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>649644</v>
+        <v>651753</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5521493468789055</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5219573183274516</v>
+        <v>0.5243215117165781</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5793767863104089</v>
+        <v>0.5812577191495198</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>272419</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>243720</v>
+        <v>242607</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>302759</v>
+        <v>302104</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2837291037136032</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2538387456263758</v>
+        <v>0.2526791554900403</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3153284439349218</v>
+        <v>0.3146469664285685</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>749</v>
@@ -4957,19 +4957,19 @@
         <v>444102</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>417424</v>
+        <v>415878</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>472103</v>
+        <v>470102</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3982115458896233</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3742906322883526</v>
+        <v>0.372903816673308</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4233192979731989</v>
+        <v>0.4215246809870653</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1072</v>
@@ -4978,19 +4978,19 @@
         <v>716521</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>681621</v>
+        <v>674895</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>757417</v>
+        <v>757517</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3452482754722088</v>
+        <v>0.3452482754722087</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3284321604103938</v>
+        <v>0.3251913184214683</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3649535658391316</v>
+        <v>0.3650018048327027</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>687718</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>657378</v>
+        <v>658033</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>716417</v>
+        <v>717530</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.716270896286397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6846715560650782</v>
+        <v>0.6853530335714314</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7461612543736246</v>
+        <v>0.7473208445099593</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>857</v>
@@ -5028,19 +5028,19 @@
         <v>671139</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>643138</v>
+        <v>645139</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>697817</v>
+        <v>699363</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6017884541103766</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5766807020268012</v>
+        <v>0.5784753190129347</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6257093677116473</v>
+        <v>0.627096183326692</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1444</v>
@@ -5049,19 +5049,19 @@
         <v>1358857</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1317961</v>
+        <v>1317861</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1393757</v>
+        <v>1400483</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6547517245277913</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6350464341608684</v>
+        <v>0.6349981951672972</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6715678395896061</v>
+        <v>0.6748086815785317</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>238149</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>211679</v>
+        <v>212670</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>266584</v>
+        <v>266904</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2275713221589042</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2022770756236435</v>
+        <v>0.2032240450026682</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2547435096537807</v>
+        <v>0.2550492055815683</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>596</v>
@@ -5174,19 +5174,19 @@
         <v>352455</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>327640</v>
+        <v>324726</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>379624</v>
+        <v>377695</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3366384684847587</v>
+        <v>0.3366384684847588</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3129364500406815</v>
+        <v>0.310153747983444</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3625882266322334</v>
+        <v>0.3607455665902692</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>874</v>
@@ -5195,19 +5195,19 @@
         <v>590604</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>553274</v>
+        <v>554540</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>633489</v>
+        <v>624454</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2821180656865184</v>
+        <v>0.2821180656865185</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2642865908030053</v>
+        <v>0.2648911700288596</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3026034570604327</v>
+        <v>0.2982872144270629</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>808330</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>779895</v>
+        <v>779575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>834800</v>
+        <v>833809</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7724286778410956</v>
+        <v>0.7724286778410957</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.745256490346219</v>
+        <v>0.7449507944184316</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7977229243763562</v>
+        <v>0.7967759549973318</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>919</v>
@@ -5245,19 +5245,19 @@
         <v>694530</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>667361</v>
+        <v>669290</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>719345</v>
+        <v>722259</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6633615315152412</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6374117733677664</v>
+        <v>0.6392544334097306</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6870635499593184</v>
+        <v>0.689846252016556</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1670</v>
@@ -5266,19 +5266,19 @@
         <v>1502860</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1459975</v>
+        <v>1469010</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1540190</v>
+        <v>1538924</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7178819343134815</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6973965429395677</v>
+        <v>0.7017127855729371</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7357134091969949</v>
+        <v>0.7351088299711405</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>213133</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>186393</v>
+        <v>189448</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>241618</v>
+        <v>242988</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2189689900876373</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1914971779337121</v>
+        <v>0.1946357581481596</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2482345916026645</v>
+        <v>0.2496422605334143</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>450</v>
@@ -5391,19 +5391,19 @@
         <v>270549</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>248450</v>
+        <v>248633</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>295856</v>
+        <v>295646</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2984254427224579</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2740499855982922</v>
+        <v>0.2742518522044539</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3263407096618676</v>
+        <v>0.3261091583006042</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>681</v>
@@ -5412,19 +5412,19 @@
         <v>483681</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>449961</v>
+        <v>446341</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>522255</v>
+        <v>520442</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2572864079581711</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2393493695258135</v>
+        <v>0.2374240451316327</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.277805074370778</v>
+        <v>0.2768409768389974</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>760213</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>731728</v>
+        <v>730358</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>786953</v>
+        <v>783898</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7810310099123627</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7517654083973355</v>
+        <v>0.7503577394665859</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8085028220662878</v>
+        <v>0.8053642418518403</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>868</v>
@@ -5462,19 +5462,19 @@
         <v>636038</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>610731</v>
+        <v>610941</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>658137</v>
+        <v>657954</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7015745572775421</v>
+        <v>0.701574557277542</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6736592903381322</v>
+        <v>0.6738908416993957</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7259500144017078</v>
+        <v>0.7257481477955461</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1582</v>
@@ -5483,19 +5483,19 @@
         <v>1396252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1357678</v>
+        <v>1359491</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1429972</v>
+        <v>1433592</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.742713592041829</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7221949256292221</v>
+        <v>0.7231590231610032</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7606506304741866</v>
+        <v>0.7625759548683673</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>921151</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>866659</v>
+        <v>868973</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>972842</v>
+        <v>973077</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2648766290452216</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2492072826139337</v>
+        <v>0.2498726597259637</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2797402065844554</v>
+        <v>0.2798078494934133</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2274</v>
@@ -5608,19 +5608,19 @@
         <v>1371820</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1317208</v>
+        <v>1324319</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1418513</v>
+        <v>1426826</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3715261327034968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3567356716679446</v>
+        <v>0.3586614563834688</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3841717484316241</v>
+        <v>0.3864229913394946</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3315</v>
@@ -5629,19 +5629,19 @@
         <v>2292972</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2216662</v>
+        <v>2221949</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2368415</v>
+        <v>2375797</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3197983672193243</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3091554852863563</v>
+        <v>0.3098928184189437</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3303202773354871</v>
+        <v>0.3313498708381848</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2556511</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2504820</v>
+        <v>2504585</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2611003</v>
+        <v>2608689</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7351233709547783</v>
+        <v>0.7351233709547784</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7202597934155447</v>
+        <v>0.7201921505065872</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7507927173860668</v>
+        <v>0.7501273402740363</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3026</v>
@@ -5679,19 +5679,19 @@
         <v>2320573</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2273880</v>
+        <v>2265567</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2375185</v>
+        <v>2368074</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6284738672965032</v>
+        <v>0.6284738672965031</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6158282515683758</v>
+        <v>0.6135770086605054</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6432643283320554</v>
+        <v>0.6413385436165312</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5323</v>
@@ -5700,19 +5700,19 @@
         <v>4877083</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4801640</v>
+        <v>4794258</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4953393</v>
+        <v>4948106</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6802016327806759</v>
+        <v>0.6802016327806758</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6696797226645131</v>
+        <v>0.6686501291618152</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6908445147136437</v>
+        <v>0.6901071815810562</v>
       </c>
     </row>
     <row r="18">
